--- a/建筑.xlsx
+++ b/建筑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dofin\Documents\GitHub\JiaGuoMeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64717252-B32F-4706-95B0-7166FA4E9C49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8CD113-E1F9-4FB1-B46C-C4C43827154E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -548,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>201</v>
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -600,10 +600,10 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>156</v>
@@ -666,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>116</v>
@@ -677,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -688,10 +688,10 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>191</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -699,10 +699,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>1</v>

--- a/建筑.xlsx
+++ b/建筑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dofin\Documents\GitHub\JiaGuoMeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8CD113-E1F9-4FB1-B46C-C4C43827154E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049420A9-B813-4413-9BC2-CDE1267BD5DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>325</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>225</v>
@@ -747,8 +747,11 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -771,6 +774,12 @@
       <c r="A27" t="s">
         <v>4</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>301</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -795,15 +804,21 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="D30">
-        <v>1</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="D31">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
